--- a/sample_non_toxic.xlsx
+++ b/sample_non_toxic.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -485,7 +485,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't disagree with you at all. Gibbons is a silly and naive, guilt ridden White liberal who'll return to England after being deported, at the end of her 15 day jail sentence, and most likely release foolish statements proving she's learned nothing at all from her harrowing experiences with the savages. My thoughts had more to do with the madness of multi-culturalism.
+          <t xml:space="preserve">I'm Serbian and I've been to most of the surrounding countries... Romania and Bulgaria are equally bad percentage-wise. About 10-12% of the population are gypsies. However, the region of Romania that I've been to doesn't have that many gypsies, so to me, Romania looked better off than Bulgaria. I assume it's worse in Bucarest and in the south of the country, as well as in Transylvania.
 </t>
         </is>
       </c>
@@ -493,7 +493,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -505,7 +505,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A little background. Folks, any resistance to the status quo here or anywhere else in the West will inevitably start out from the Left. The Right in America was destroyed in 1865, and the Right in Europe in 1945. It has never regained traction either here or abroad. The only ticket to success we have as members of the political Right here in the United States is to piggyback ourselves onto whatever inevitably Leftist movement decides they've had enough of the ambient kleptocracy, and then steer it in our direction. Our European Brothers and Sisters arguably may have a somewhat better deal as they at least have been able to field nominally Rightist/Nationalist political parties (albeit imperfect ones) such as Front National, NPD and others: Special Report: In France, far right capitalizes on euro crisis - Yahoo! News From Waaay Out West, --HLM
+          <t xml:space="preserve">I've got to hand it to the USA man. When George Bush was elected TWICE I lost all hope and respect for the average American. But I convinced myself that on the bright side, there's no way in hell you could find bigger moron than George dubya. Seems you did. I'm amazed. I mean, do you guys have a special school that teaches people to become this moronic or are these guys just naturally gifted?
 </t>
         </is>
       </c>
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -525,7 +525,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">lol, that is the most hilarious thing I have ever heard of. Oh well the more african women that get infected with aides then the better..... afterall if he goes around with so many women all the time he is bound to have an STD by now, especially in Africa. nope, the birth rates are still higher than the death rates
+          <t xml:space="preserve">Relax, it's not like I posted any praises to the Albanians, it was but news. Maybe I should have also added a comment like "wtf is this?", but most likely I was way too shocked by the whole event to be able to say anything. You and other people got your opportunity to explain to me and others who had no clue about the muslim division, how bad the albanian soldiers actually were. So thank you
 </t>
         </is>
       </c>
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -545,7 +545,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брошура је везана за ову тему, а можете је преузети одавде. SS Family Celebrations The Celebrations In The Life Of The SS Family This publication explains the meaning of the different celebrations and gives guidance to the families of how to celebrate these occasions in the right spirit. Through reading this booklet, every SS Man and SS Woman should come to a deeper understanding of these celebrations. This booklet should provide a constant companion especially for the women, as most of the preparations will fall to them. The knowledge of the customs of our forefathers gives us inner peace; keeping to these customs gives us direction and strength. F. Weitzel SS Lieutenant General.
+          <t xml:space="preserve">Well I guess that I am banned. What a relief! I have a whole bunch of stuff that I have been neglecting. Odd that they let me post a couple times before banning me. I can't figure out why they don't like me. They love diversity, and I am different. I guess that they just didn't like that mirror that I kept holding up in front of them.
 </t>
         </is>
       </c>
@@ -553,7 +553,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -565,7 +565,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">It's always good to hear someone learning the language of the Vaterland! I don't recommend learning from a class. When I was learning English, I did it from a book and a few cds. I have found that classes move too slowly after they cover the basics. Classes are good in teaching the very basics, but after that... Viel Glueck!
+          <t xml:space="preserve">I'd like to attend this year. I've recently taken up motorcycle touring and this sounds like one incredible country ride. Question, though... Shouldn't this event be held in an area of the CONUS that is centrally located so as to be equally geographically accessible to everyone? Denver or KC would be about right. Just a thought. Also a weekend that people already have days off from work around. Like Labor Day or such. It would really increase the time at the event because travel days would be easier for people to schedule without work. This white man's soul is weary of reading SF alone. It sounds like it would truly be a life event to get to know some of you and just feel supported and strong together. Last question: Assuming one possesses a CHL with reciprocity in TN, what is the protocol for arriving at the event while armed? Best to all here.
 </t>
         </is>
       </c>
@@ -573,7 +573,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -585,7 +585,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well how much is a small amount of alcohol and how much is a small amount of "drugs". Alcohol is a mind altering substance regardless of how much you drink. All it comes down to is how much you usually drink. Example - someone who drinks lets say 8-10 pints a night in the pub after work, to this guy a shot of vodka would prob be a small amount of alcohol since it would take allot to get him drunk. Then you have some guy who drinks on the weekend who after 3 pints is pretty drunk , what would a small amount be in this situation? This plays out with pretty much any drug, your body will become immune to it , meaning you will need more. Regardless of how you cut it up, alcohol is a drug like any other, one of the worst ones at that.
+          <t xml:space="preserve">The Labour Parties “mandate” to rule Britain is less than 25% of the population eligible to vote. The three main parties Labour, Conservatives, and Liberal Democrats, have all in the past signed declarations with the Commission for Racial Equality to keep immigration off the voting agenda. The Tories tried at one point to win votes by promising stricter immigration laws, but were shouted down as “pandering to racists”. I believe that voter turnout at the last General Election was around 53% of the population eligible to vote. Given the fact that politicians are not listening to the electorate, most people believe that politicians will tell any lies necessary to gain votes, and that an increasing number of people see the British Parliament as irrelevant since the government merrily signs more and more of our democratic rights to the dictators in Brussels, it is hardly surprising that people do not bother.
 </t>
         </is>
       </c>
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -605,7 +605,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blame the victim. A defense lawyers first tactic. IRonic that you should use the rape victim analogy, i was thinking it was like the abused woman, and people say, "well why didnt you just pack up your kids and go into the street?" instead of to the man " why dont you STOP BEATING HER?" In this case, it sure seems as though America is the abused woman.
+          <t xml:space="preserve">Good point TF, although we should not despair. Although every year, we do build up hope a little too much, we still gain ground year in, year out. So we are making progress and afterall, we are a minor party, so for even one seat on the London Assembly is a very, very, very positive thing. And hey, if it's two seats, the more the merrier.
 </t>
         </is>
       </c>
@@ -613,7 +613,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -625,7 +625,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">I don't really think there is a large Celtic presence in modern Turkey(though I don't doubt it's still present in a few rare individuals). I posted that link mainly because I found it interesting, even if it doesn't correlate exactly with this topic. It's something I think most people--even WNs--don't know.
+          <t xml:space="preserve">... and it turns out the bagels were probably actually developed by Slavic gentiles, or ancient Egyptians: --https://en.wikipedia.org/wiki/Bagel -- A short history of the bagel. - Slate Magazine The Jews do tend to do a little piecemeal science but its usually totally dependent upon and within a cultural paradigm devised and maintained by Whites.
 </t>
         </is>
       </c>
@@ -633,7 +633,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -645,7 +645,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corey Haim is a Jew. Who knew? Oftentimes Jews are narcissists, as video below aptly demonstrates. [ame="http://www.youtube.com/watch?v=WLRK-XP_GLE"]YouTube- Corey Haim - Me, Myself, and I (He GOT HAIMED on PILLS!)[/ame] Me, I have no pity for him because he let drugs get the best of him. He had a huge head. As the result of this bloated ego where he thought the world revolved around him, he ended up being a sore and impoverished loser. Maybe his Jewish parents coddled him so much his mind went screwy at a young age. At least he didn't commit suicide like Jonathan Brandis, who had similar ego issue where non-steady filmmaking and acting gig is for him instead of college education for a steady, humble, non-lucrative job. Losers who depend on drugs without extensive rehab end up six feet under like Brad Renfro.
+          <t xml:space="preserve">I lived in Newport Beach for a long time. I remember going to any government office and seeing things like a sign that said "follow the blue line for English, follow the yellow line for Spanish" (I paraphrase). The first time I saw that was in 1977 when I first moved there. I got very angry and said loudly, "Why do we have to put up with this? English is our official language. Let the Mexicans learn it. I don't go Mexico and expect to follow a line that says for English". I got alot of dirty looks from everyone. I will never forget it. Even my wife was pissed at me.
 </t>
         </is>
       </c>
@@ -653,7 +653,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -665,7 +665,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can see where they'd get tired of the brawling drunks and useless losers, social misfits and psychopaths, and want to get totally away from them. They'll always be that element of social outcasts and misfits attracted to a revolutionary or radical movement; being that it stands in opposition to the existing social order--which they blame for their failure and are convinced has rejected them for no good reason. (I suppose just as a destructive force a brawling mob of them could be made useful in a violent revolution, but then they'd have to be neutralized and the streets swept clean of them if life is to go on after the revolution.) But for Vinlander to say they're no longer "racialists" and try and grandstand with grandoise remarks like they'll subvert the two party system from within does bothers me. They won't shake off informants for the feds by openly declaring themselves subversives. That's for sure. I don't believe in any of these "absolutes" they attribute in general to White nationalists, and I don't believe most WNs do either.
+          <t xml:space="preserve">I like Your sense of humor!!! Gee looks, can cook and a great sense of humor...If I were single...hummmm. Well I can say blessfuly that I found my Soul Mate and We just got back from a date! We got dressed up to the 9's went to an exclusive restaurant in Nashville. Saw Dolly Parton and Ricky Scags two of Her favorite singers. They were sitting next to Us! Go figure they were slumming Nice People to talk with. Cheep skates...they stiffed the water on His tip, I caught the Tip for Both parties. I felt sorry for the Waiter. Then we went to Opryland to the IMAX Theater and Caught Saw 4. It was OK I guess...Brenda enjoyed it that is what mattered...personaly I preferred Saw 3. After the Movie We took a short Drive and came home...While in the drive way We necked like teenagers...It felt great to be out with My Beautiful White Soul Mate and Wife! I sincerely hope You find Your Soul Mate as well and soon! With Your whit it think You would be a blast to be around! Good Luck and God Bless! D
 </t>
         </is>
       </c>
@@ -673,7 +673,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -685,7 +685,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have been reading news articles from the UK about the up-coming elections. You have got the rival political parties foaming at the mouth with hatred for you guys! LOL! Clearly, the old gang parties are in a panic from the new and wiser BNP! Whatever you lads are doing, to put such a scare into the establishment, keep it up! Onward to victory!
+          <t xml:space="preserve">http://www.dwightmurphey-collectedwr...-MacDonogh.htm Revisiting the “Good War’s” Aftermath: Emerging Truth in an Ocean of Myth Dwight D. Murphey Wichita State University, retired After the Reich: The Brutal History of the Allied Occupation Giles MacDonogh Basic Books, 2007 Keeling, writing for the 1947 publication of his book [which explains his use of the present tense], said there was “an upsurge in venereal diseases which has reached epidemic proportions,” and went on to say that “a large proportion of the contamination has originated with colored American troops which we have stationed in great numbers in Germany and among whom the rate of venereal infection is many times greater than among white troops.” In July 1946, he says, the annual rate of infection for white soldiers was 19%, for black troops 77.1%. From Waaay Out West, --HLM
 </t>
         </is>
       </c>
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -705,7 +705,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">that's really cool, I looked on youtube but only found this I've been using yarn to knit and crochet, I'mworking on a blue hoodie, and confederate flag bandanna, i made a Confederate oven mitt/ potholder and a camoflage pillow. I'm also in the way of quilting a camo blanket. My grandmother actually owns a pair of sythes, they were for Grandpa (RIP) and I'm learning to felt and weave, I'd like to discuss this. if the mods want to move this to the survival section, I would be happy with that.
+          <t xml:space="preserve">Leabhar Gabhála na hÉireann states that the Tuatha Dé Danann and the Milesians originated from the same stock on a land mass to the west of Ireland that suffered a great catastrophe. I wouldnt be as quick to dismiss it as a historical source as modern scholars appear happy to do, nor would I dismiss Geoffrey of Monmouth's Historia Regum Britanniae as a source either.
 </t>
         </is>
       </c>
@@ -713,7 +713,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -725,7 +725,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm so sick of hearing of yet another politician pandering to non-white, 3rd worlders, as if they even have the right to so, on our dime! Good job, Rand now I cannot bring myself to support you in any way now. likewise, Mitt romney threw his own presidency by pandering to spics at the eleventh hour, a betrayal to the tea party who supported him.
+          <t xml:space="preserve">This is all just media propaganda Dixie Girll I know how you feel I feel the same way at times but I doubt ther will ever be a black president, Al sharpton ran last time did'nt make It, remember when jesse jackson ran? This is just your every once in awhile black politician wanting to run for president and the media sucks It up.
 </t>
         </is>
       </c>
@@ -733,7 +733,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -745,7 +745,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've used a free service called confimax.com which has seemed to work fine in most cases but not in all - i still have some cases where even through confimax the email is listed as 'read' but i never get any kind of response from the other end. with the entire phone system now being rerouted through the computers of suspected israeli secret police - perhaps it's due time for some other communication medium? or at least some agreed upon alternative besides email.
+          <t xml:space="preserve">Rember Colin Ferguson, the subway killer? Immigrant, black, murderer of 6 people on a subway. http://en.wikipedia.org/wiki/Colin_Ferguson Let's see if the media gets the connection between non-white immigrants and mass shootings, or if the jewish controlled media spins it like a top, and blames: unfair treatment as a youth, guns, or society.
 </t>
         </is>
       </c>
@@ -753,7 +753,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -765,7 +765,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Only some sectors are "booming": software, call centres, maybe a few other areas. The country is desperately poor and with massive unemployment. In addition these "emerging markets" -- countries such as Brazil, Mexico, and India -- have their economies shaped according to the needs of core Western economies (thus, for example, call centres and software serve Western markets). This economic dependence usually implies, in these neo-liberal days, that speculative finance capital can move in and out at will. Recently it's been moving out.
+          <t xml:space="preserve">I'm sure the person that wrote this article, doesn't support the view that leb's have a crime problem. Really makes you wonder why they write something like this which has no support of the australian community. Makes you wonder why people like this should even have a voice. People should really stop buying the sunday, if the sunday paper want to allow such writers and such views like this to be distrobuted to the australian people. Then mabe the people should stop buying it's papers all together, and teach a hard lesson to the media, you either support the majoirty view, or your out of business. It makes me sick, how the media, push minority view of an agenda which they try and brainwash the whole society with such views. I honestly i think the people should start to reject commerial media, televison media, paper media, where the people with power have control. Thank GOD, that the internet has turned the tides, againist a controled and propaganda media system. People are now not forced to be manuplated by the controlers of the media system.
 </t>
         </is>
       </c>
@@ -773,7 +773,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -785,7 +785,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Head shaved to zero,boots with White laces, jeans and bomber jacket, but I don't class myself as a Skinhead and no one has ever said anything to me, negative or positive, in fact half the guys my age in this area dress that way and shave their heads, even the ethnics. Most people wouldn't know a skinhead if he jumped up and bit them, what's more I went to one of those Psychobilly do's recently and someone mistook me for one of them..so go figure.
+          <t xml:space="preserve">You're welcome. All we are saying is that there is a lot of propaganda about that does not add up. Why are we not allowed to look at the evidence? http://www.zundelsite.org/english/de...ims/index.html The people on this list are not ill educated neo nazi thugs, who just enjoy being nazi because it irritates their granny.
 </t>
         </is>
       </c>
@@ -793,7 +793,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -805,7 +805,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks for the link, that one I will definitely purchase. I know a thing or two about surviving. I can hide in the swamps to survive, and I can hide a mess of some good ole butt stomping, straight shooting white folks with me. That's how you can you tell the true locals from the new arrivals around here. We'll go play out on the marshes or in the deep swamp, and they won't. It's way to easy to get lost or turned around out there if you don't know what you're doing. I suspect there are people in every state that know how to live in undesirable areas others are afraid to venture into. Once again, thanks for the link.
+          <t xml:space="preserve">The short answer with regard to Stormfornt is no Their visitor figures indicate a REMARKABLE upsurge IN VISITOR NUMBERS SINCE THE ADVENT OF OBAMANATION. https://www.stormfront.org/forum/t538247/ https://www.stormfront.org/forum/t204019/ https://www.stormfront.org/forum/t637052/ (Sorry you can't access the last one unelss you are a sustaining member, but it details the costs of maintaining SF as a result of the increases in visitor numbers) Basically I am inclined to agree that in public at least white pride people have taken a "low profile" attitude, as in no skinhead wear etc, but that I would say is because white pride has gone mainstream and is ulocking the potential growth it can experience as a result of the fears of normal ordinary every day white people whoo find themselves bombarded with disinformation about integration of races and see the falsity in its reality themselves. I think this is poignantly recognized in the performance of BNP and other right wing political parties in EU elections along with the surge in white pride in America and general intolerance for non white emigrants in the white countries.
 </t>
         </is>
       </c>
@@ -813,7 +813,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -825,7 +825,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">NC: Lots of Mc/P signs &amp; they disappear and then reappear. Surprisingly when I was in MA, I saw lots of Mc/P signs right outside of Boston. Same with western VA. PA (my real home) signs everywhere in the T zone. That's what we call it (excludes Pitt &amp; Philly) or as John Murtha would say, where the racists or rednecks live. That's all I know
+          <t xml:space="preserve">Each year 30,000 American children disappear without a trace. They are never seen again. No bodies are found. Where do 30,000 children go? That is 300,000 in a ten year period. The FBI will not keep and report the stats. The media doesn't report it. Why? Editin in: Been checking the stats. The stats that exist, anyway. The FBI does NOT keep stats. I can't figure out how the 30,000 adds up. The only way it could possibly add up that high is if runaways that are never found are included.
 </t>
         </is>
       </c>
@@ -833,7 +833,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -845,7 +845,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[QUOTE] You do not pay attention do you. The Palestinian Right to Return The term "Right of Return", when applied to Palestinians with respect to the State of Israel, reflects a belief that Palestinian refugees and their descendants have a right to return to the homes their families had possessed prior to the 1948 Arab-Israeli war or the Six-Day War. The UN General Assembly Resolution 194 was passed on December 11, 1948 with Egypt, Iraq, Lebanon, Saudi Arabia, Syria, and Yemen voting against. The Resolution's text does not distinguish between Palestinian and Jewish refugees. Its Article 11 "[r]esolves that the refugees wishing to return to their homes and live at peace with their neighbours should be permitted to do so at the earliest practicable date, and that compensation should be paid for the property of those choosing not to return and for loss of or damage to property..."[4] JU88
+          <t xml:space="preserve">Genetic testing is always a tricky business. There are several factors that can make the racial genetic test inaccurate that I can think of off the top of my head. These are: 1: Recent blood transfusions. (The blood the Red Cross provides is checked for blood borne diseases and marked as clean but the race of the donor is not generally given to the recipient) 2: Sample contamination. (There are many ways a sample can be contaminated such as someone accidentally touching or cough on the sample) 3: Operator error. (Sometimes the scientist looking at the results may occasionally make an error since racial genetic screening is still a recent development.)
 </t>
         </is>
       </c>
@@ -853,7 +853,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -865,7 +865,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">In a compliance review at the conclusion of its recent session, the U.N. Human Rights Commission cited Poland for having "restrictive" abortion laws. The report, released Friday at the conclusion of a three-week winter session, said Poland's state party "should liberalize its legislation and practice on abortion." A leading Polish pro-life group criticized the report as a "U.N. attack on the sovereignty of Poland." Lech Kowalewski, spokesman for the Polish Federation of Pro-life Movements, said he is concerned the report might influence the Polish government to adopt a pro-abortion bill under consideration. The report, which evaluates compliance with the International Covenant on Civil and Political Rights, reiterated the panel's "deep concern about restrictive abortion laws in Poland, .. Source: http://www.worldnetdaily.com/news/ar...TICLE_ID=41376
+          <t xml:space="preserve">Would you buy a 37 year old car that no man has ever chose to buy, even after many men have taken it for test drives? Now consider the prospect of marrying a 37 year old, never married American woman miseducated at PC feminists colleges - there must have been something wrong with her "riding" ability or why hasn't some other man assumed possession? :-)
 </t>
         </is>
       </c>
@@ -873,7 +873,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -885,7 +885,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sirs, A handy way to save time is to download and save web sites while you sleep. A tool to pass to those who can't afford Front Page to download websites: WebStripper or Offline Commander makes it easy to copy web sites to your own hard disk for browsing at your leisure while off-line. It's incredibly easy to use, it's very fast and above all it's absolutely free for personal use. http://www.webstripper.net Check out Offline Commander at: http://www.zylox.com/ I think it is even better than WebStriper. Check their site- you might even find that it works as a free version there or at most $40. I have archived and burned to CDs many GB of sites and passed on to many others for learning and safekeeping. .
+          <t xml:space="preserve">As I've said in some of my previous posts here, I actually detest multiculturalism and anti-racism, along with the liberal ideas associated to them. I'm not promoting the melting pot, but just wondering if an exchange of just a few genes here or there hurt our race. This article suggests that one or two black individuals interbreeding with a population of thousand whites, or so, would benefit us more than interbreeding like the Icelandic or the Amish and marrying our cousins. Even Arthur de Gobineau - yes, the famous self-described racist Gobineau - while warning about degenerate races arising from large-scale miscenegation, also suggested that every great artist must have had some black blood in him. Even if Gobineau was wrong, does a few permille of black blood harm us rather than benefit us?
 </t>
         </is>
       </c>
@@ -893,7 +893,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -905,7 +905,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">One more thing. On the main stream media when they report on white nationalist marches, they always only show the 10 percent dressed up fringe group. They seldom have any photos of the vast majority of the demonstrators who are clean dressed mainstream looking folks. The TV media does this to keep us looking unappealling to mainstream. Now, are we gonna do that also to ourselves!
+          <t xml:space="preserve">Judging by the comments posted to that video, it appears that nearly everyone smart enough to create a YouTube user account doesn't believe the HFCS propaganda. Anyway... there's really no earthly reason to own a television. Our people survived for thousands of years without them, and frankly, having lived without one for nearly all of my life, I can't understand what the attraction is. Isn't technology supposed to improve our lives? Cars, refrigeration, telephones, and the like all offer convenience, connection -- some utility. What does TV possibly do to improve the quality of life? I do hear about "educational" shows. But that's still passive. You can learn much more from reading, which is active learning. If there is one thing that can release this country from the stranglehold of Jewish propaganda, it's landfills full of television sets. But it does require that we lead by example. Friends and family will not listen to rantings about the vile nature of TV programming from someone who still watches it.
 </t>
         </is>
       </c>
@@ -913,7 +913,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -925,7 +925,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Didn't the Tibetans bring it upon themselves, my Erudite friend? If they simply gave into progress and were willing to give their petty 'tribal freedom', their silly religion, culture, language and dreams for the future? Could they not give this all up, as Whites do int he West, and live in peace and without violence? If the Tibetans simply gave up to Chinese progress, they would not be any need for violent and bloody repression.
+          <t xml:space="preserve">Anglosaxonblood, up here in Canada, we have a coffee franchise called Tim Horton's...simple business concept: they pay people a low wage to serve coffee...they would pay that wage if it was a white person or ethnic person serving coffee...that's the wage they pay, they pay that wage because the margin on coffee sales can't be that high...the sheer volume of what they sell brings in a profit...you make it sound like this is China where they're paying workers peanuts to make zippers in a factory...maybe I'm wrong, but it seems to me that these immigrants ARE doing these jobs because they are the only jobs they can get at this moment in their life...respect them a little bit for not leaching off the welfare system...they get up at 4 AM to serve us middle class coffee....I've only seen a handful of whites doing this job when I go to Tim Horton's....the only reason I can see is because they just don't want to do this job. If I suddenly lost my job as a physician and had to feed my family, let me tell you, I'd sell hammers at Home Depot to put food on the table.
 </t>
         </is>
       </c>
@@ -933,7 +933,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -945,7 +945,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aid agency to defy Israeli ban on vehicles in south Lebanon - BEIRUT - The medical relief organization Medecins Sans Frontieres (MSF) announced on Thursday that it would defy an Israeli threat to bomb any vehicle moving south of Lebanon’s Litani river, an area that includes the port city of Tyre. MORE TV NEWS CNN reporting Harriri's sons house was supposed target of lighthouse strike.
+          <t xml:space="preserve">If there were no Jews in America, homosexuality would not be a "Gay Rights" political weapon used against morality. It's only pressure from Jewish politicians, Jewish lawyers and the Jewish media (and amoral complicit liberals and moderates) that has allowed Gays to get more and more 'rights 'in the US. A partial list of 'Gay Activists" Rabbi Secher, Richard Goldstein, Terry Lobel, Surina Kahn, Jay Guy Nassberg, Judith Light, Rick Rosendall,Frank Kameny,Allan Ginsberg, Allen Klein, Barney Frank, Larry Kramer, Arnie Kantrowitz, Winnie Stachelberg,Jonathan D Katz, Israel Fishman, Bella Abzug, Moises Kaufman, Michael S. Arnowitz, Tony Kushner,Len Hirsch (President of the Gay Federal gov.employees group) Meg Moritz, Barbara Raab, David Goodstein,Judy Wieder,Jennifer Einhorn, Evan Wolfson, Kathy Levinson, Leslie Feinberg, Roberta Achtenberg,Fred Hochberg, Hilary Rosen, Michael Berman, Ronald Gold, Larry Brinklin, Michael Goff Rob Eichberg, Jeffrey Newman, and the list goes on and on and on and on.... And that is why they support Gay "Rights" so much, just in case they have to come out of the closet for good. but also to sleaze up White countries (always fun for the Jews) .
 </t>
         </is>
       </c>
@@ -953,7 +953,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -965,7 +965,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">2006/08/03 Real Holocaust happens in Palestine 06:37:17 È.Ù President Mahmoud Ahmadinejad Thursday said that the bullying powers have materialized the real Holocaust in Palestine. The President made the remark at the emergency summit of the Organization of the Islamic Conference (OIC). Ahmadinejad said that some western powers paved the way for establishment of the Zionist state in Palestine on the pretext of compensating the losses of the survivors of World War II. MORE
+          <t xml:space="preserve">http://www.preventgenocide.org/genoc...ficialtext.htm Let’s examine C and E. Forced busing of blacks into white schools and whites into black schools. This definitely falls right smack under the ‘e’ clause. Forced integration policies designed to ensure that no one race; particularly white communities, have a right to freely associate, work and live solely with members of their own race. Affirmative Action programs that replaces whites with less qualified non-whites in the workplace; thus reducing white physical presence is another form of physical destruction. Their presence is physically restricted in a particular environment, and this may have deprived millions of whites of a means to sustain their lives. Federal and State housing laws, rules and policies that force white communities to accept non-whites; thereby driving out whites, and reducing living spaces and communities needed for white culture and race to thrive, live and sustain its heritage. These are some of the federal diversity initiatives that are bringing about physical destruction to US white communities, of their presence in government, the military, and in the employment sector… The US federal program of forced diversity violates the articles of the 1948 Convention on the Prevention and Punishment of Genocide and its subsequent clauses. No?
 </t>
         </is>
       </c>
@@ -973,7 +973,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -985,7 +985,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kalamazoo cold case murder suspect formally charged by video wkzo.com, April 25, 2013 Kalamazoo cold case murder suspect formally charged by video - News - AM 590 - WKZO Everything Kalamazoo {} 'He was taunting me': Judge testifies about letters accused murderer sent him about 1993 cold case in Kalamazoo mlive.com, May 13, 2014 'He was taunting me': Judge testifies about letters accused murderer sent him about 1993 cold case in Kalamazoo | MLive.com {}
+          <t xml:space="preserve">"Those ghosts from civil rights battles past have never left Noxubee County, and they continue to influence the way the case against Brown is viewed. But guilty or innocent, the Justice Department wants this case to be about Brown, not the state's historical disenfranchisement of black voters." I love this last cheap shot... It opens up the case for the Multicult so no one thinks their reporting is "Far from the mainstream", As the antis love to put it.
 </t>
         </is>
       </c>
@@ -993,7 +993,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1005,7 +1005,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">My newest Auckland University student magazine informs me that homosexuality is now "cool". On pg.25 it says "Euro is most often the boy of choice". This shows that white males are thought the most popular amongst gays, just as white girls are the most popular amongst straight people of all races. Apparently its okay to point this out regarding gays, but not straights. The message is clear: white guys becoming gay &amp; not producing white children equals good, white guys breeding with white girls to have white children equals bad. I really understand now why anti-white jews have latched onto homosexuality as a weapon in their arsenal.
+          <t xml:space="preserve">I have 2 Mossberg 590's here. Both are excellent weapons. I had to replace the mag spring in one of mine, so I did them both. Replaced them with Wolff brand springs. I'd recommend that to anybody with a shotgun. At least get the replacement spring and change it out when the factory one gets fatigued. I also am a big fan of the 870 Remington. Both are robust and reliable. I have heard both good and bad about the 500's. Had a carpenter who worked for me who had one that went to crap after about 500 rounds. But, they are guarranteed, so you just send it back if you have problems. Anyhow, good luck with your shotgun. It's one of the most versatile weapons out there. I think every WN home should have at least a dozen or so.
 </t>
         </is>
       </c>
@@ -1013,7 +1013,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1025,7 +1025,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">I can tell you that WAU does children, women and a family clothing drive. We accept all donations and send them out to those in need of them we have about 4 families right now who are prego so I am sure someone could use them. You do with them as you wish but I just thought I would bring this to your attention in case you were not aware of it. Tereasa WAU MISSOURI www.wau14.cjb.net [email protected]
+          <t xml:space="preserve">Thank you so much, Darryl_P. My awakening was only 2 years ago, 9/11 was an important part of it, but not the only one. I remember quite well, what went on in MY mind during the process, and I think, others are not so different from me. It was not at all pleasant. My pride and self-esteem was deeply hurt, it was a very humiliating experience - not so much in the eyes of others, but in my own eyes. (Above-average capability of logical and scientific thinking, resistant to brainwashing etc. - blahblahblah - wrong! Nothing but a stupid fool had I been!) It's hard to accept. So people's reluctance may not only be about "How could anyone on our side commit such a horrible crime?" but also "How could I have been such a horrible fool?"
 </t>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1045,7 +1045,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Well Lousinana isn't a "winter" state! So yes you could probably keep them out all winter, but unless the pasture actively grows in the winter, you should supplement with grass hay. Cows can eat just about any pasture and get nutrients. I've seen them grazed on harvested corn fields for the winter, BUT the owners rotate them through other fields because there isn't enough to sustain them for their purpose. Why do you want a cow?? If you want one for meat they can get by on less than ideal pasture if you supplement, but if you want milk that's another story. If you want one to control the wild grass, I'd stick with the sheep and maybe add some goats. They'll eat what the sheep won't.
+          <t xml:space="preserve">Up until 1970 they would allow Barbara Eden to show her belly button on "I Dream of Jeanie;" too risqué. Agreed the continual moral decay of the entertainment industry is dragging this nation into the gutter. It's exemplified by what passes for popular music today. This from a Southern Rock-n-Roller from the 70s.
 </t>
         </is>
       </c>
@@ -1053,7 +1053,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1065,7 +1065,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">I think judging homosexuals by how people act in gay parades gives a very skew picture. First off how many % of the homosexuals actually particpate in a gay parade? I would guess that the vast majority dont bother. And to think that how they act in a parade reflects how their everyday life looks like seems very dubious.
+          <t xml:space="preserve">Thanks for the input guys, I just wanted to know how y'all felt about it now rather than say before we're on the battlefield one day and I just brought it up in the trenches and received a not so warm welcome. No, I dont look jewish and I'd never practice it or claim it even if I was.
 </t>
         </is>
       </c>
@@ -1073,7 +1073,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1085,7 +1085,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm not remember where I read it, and how accurate it is, but British aristocracy actively supported Hitler during his rise to power. They did that becosue they were afraid of progressing commies over the Europe. But once they noticed that Stalin is taking control over the game, they changed their minds right away. Poland was a pawn back then, as it is now. I don't know, but our politicians are just dumb people. Those idiots think that politics is about friendship
+          <t xml:space="preserve">If there are so many successful black people then....... Did You Know? More than one in six African-American women (16 percent) has been physically abused by a husband or partner in the last five years, according to a Commonwealth Fund survey published in 1996. Black women were the victims in more than half (53 percent) of the violent deaths occuring in the homes of female victims, according to a study published in the Archives of Internal Medicine in 1997. A New York City study of female homicides between 1990-1994 found that 52 percent of the victims were African-American in a city that is only 25 percent black. In Philadelphia, 60 percent of the violence-related injuries for which African-American women sought emergency room care were inflicted by their husbands and boyfriends. --- http://www.endabuse.org/programs/dis...hp3?DocID=9904
 </t>
         </is>
       </c>
@@ -1093,7 +1093,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1105,7 +1105,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">If a non-white person wanted to post here then I don't really see how you could stop them anyway, unless they stated that they weren't white. We don't have to supply a photo or even declare that we are white. So there could be loads of non-whites here already, and whether you think it should be allowed or not makes no difference.
+          <t xml:space="preserve">Cool tats. My bro in law just got out the pen. He did a 3 year stint cuz someone planted some crap in his ride. While inside he got both sleeves done. While I worked 5 days a week 10 hour days, he sat on his ass in the pen getting inked up. I would say I'm a bit jealous of him, but I'd have hung myself with a sheet had they put me in a tiny cage.
 </t>
         </is>
       </c>
@@ -1113,7 +1113,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1125,7 +1125,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sayanim Israeli Operatives in the U.S. - Americans know that something fundamental is amiss. They sense—rightly—that they are being misled no matter which political party does the leading. A long misinformed public lacks the tools to grasp how they are being deceived. Without those tools, Americans will continue to be frustrated at being played for the fool. When the “con” is clearly seen, “the mark” (that’s us) will see that all roads lead to the same duplicitous source: Israel and its operatives. The secret to Israel’s force-multiplier in the U.S. is its use of agents, assets and sayanim(Hebrew for volunteers). When Israeli-American Jonathan Pollard was arrested for spying in 1986, Tel Aviv assured us that he was not an Israeli agent but part of a “rogue” operation. That was a lie. Only 12 years later did Tel Aviv concede that he was an Israeli spy the entire time he was stealing U.S. military secrets. That espionage—by a purported ally—damaged our national security more than any operation in U.S. history. In short, Israel played us for the fool. http://www.informationclearinghouse....ticle25976.htm
+          <t xml:space="preserve">Another Conspicuous Coincidence Operation Bagratian was the staggeringly successful Soviet summer offensive for 1944 AD, which broke the back of the German army, ultimately causing its increasing collapse. Operation Bagration "was named after Georgian Prince Pyotr Bagration, general of the Russian army who received a mortal wound at the Battle of Borodino" against Napoleon in 1812 AD*. Now, not only was Prince Bagratian a Boyar [Russian noble], who fought for the Czars, but, presently, a scion of the Bagratian royal family of Georgia is the current claimant to the Imperial Throne of Romanov Russia**.* http://en.wikipedia.org/wiki/Operation_Bagration. Napoleon was the military savior of the Proletarian French Revolution (1789-1815 AD), upon which was based that of the Bolsheviks a hundred years hence. ** http://www.imperialhouse.ru/eng/impe...m/leonida.html ; http://en.wikipedia.org/wiki/Leonida...hess_of_Russia Thus, Operation "Bagratian" blatantly refers to Imperialist, Czarist, Boyar-ist, "counter-revolutionary" roots*.* "Counter-Revolutionary" roots from, incidentally, beyond the borders of Europe, in Georgia. ("Again w/ the 'George' [Ge-Urgos (Gaia's Worker)] references..." Europeans, apparently, being but bat-blind barbarians, are only fit for foreign rule... Note, too, that Boyar is a Turkic word...)
 </t>
         </is>
       </c>
@@ -1133,7 +1133,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1145,7 +1145,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">If there are so many successful black people then....... Did You Know? More than one in six African-American women (16 percent) has been physically abused by a husband or partner in the last five years, according to a Commonwealth Fund survey published in 1996. Black women were the victims in more than half (53 percent) of the violent deaths occuring in the homes of female victims, according to a study published in the Archives of Internal Medicine in 1997. A New York City study of female homicides between 1990-1994 found that 52 percent of the victims were African-American in a city that is only 25 percent black. In Philadelphia, 60 percent of the violence-related injuries for which African-American women sought emergency room care were inflicted by their husbands and boyfriends. --- http://www.endabuse.org/programs/dis...hp3?DocID=9904
+          <t xml:space="preserve">With respect, it seems like many of our international guests assume we are in power over here. We aren't. Despite what the lugenpresse says, our president is not a White Nationalist. If we were in power, a lot of things would be different. Dr Duke &amp; Andy Hitchcock Expose the Jewish Privilege of the Sackler Family that has Murdered hundreds of thousands of People and Destroyed millions of Families Worldwide! – David Duke.com
 </t>
         </is>
       </c>
@@ -1153,7 +1153,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1165,7 +1165,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">I truly feel that education (and the lack thereof) plays an important part in this crisis. In this area, it's not Whites in general that have below-the-line birth rates, but the educated, employed and socially responsible Whites. It's not economically feasible to have 10 kids, and even the Catholics in this group are practicing birth control. It's no longer acceptable to have "as many children as God allows" but rather to have as many as you can afford to raise without government assistance. IMO, this is meant in large part to keep you from getting fired. What you say and do in private is not always appropriate in the work place.
+          <t xml:space="preserve">The Lord of the Rings is the best White Nationalist mythology - works well from both a White Christian and a White Pagan perspective. We featured Boromir as a mythological White warrior hero in our music video: We will not step down. http://media.putfile.com/we-will-not-back-down Here is a drawing of Boromir (my favorite character in LOTR) which we featured in the music video http://media.putfile.com/we-will-not-back-down
 </t>
         </is>
       </c>
@@ -1173,7 +1173,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1185,7 +1185,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'd like to stereotype skinheads as white and gang related , preferabbly in a strong formation with relevent contact ability with other gangs. Ofcourse nationalism and racialism would be associated to some individuals, i can recount time and time again when I have felt let down by the actions and attitudes of other skin heads . I don't think this is a great issue and as such should not come in between the built up trust and formation. Skinheads are in it togeather and stand by white pride with purity and white power, rednecks seem to be more lazy in regards to ideals and morality but tend to be involved in gang activity none the less, just in a more multicultural sence.
+          <t xml:space="preserve">And yet the UK is happy to turn over tax-payers to the EU? Where is the pride in that? I campaigned very hard against the Lisbon treaty and every chance I have had to vote it was against the EU. I agree with you that the EU membership has opened up the real possibility of the destruction of the historic Irish nation. Unlike Lord Flint's broadcast for the Blue Shirts (something I didnt expect because I usually agree with him) I believe EU has given us nothing but pain and continued membership means the end in the medium term.
 </t>
         </is>
       </c>
@@ -1193,7 +1193,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1205,7 +1205,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">I personally met a survivor of the "Bataan death march". He was totured with hot candle wax on his back, you wouldn't believe the burn scars this man had on his body. He said the things he witnessed during still bring tears to his eyes, most of it he wouldn't even speak of, he barely survived from lack of food and water. It must have been horrific to endure, he absolutely hated japs, he made no bones about that. The japanese were not victims during WWII, they were a racist force that killed millions worldwide of all races, the chinese suffered very badly from jap occupation. The japanese got what they deserved in the end, they are just lucky it was not much worse than it was.
+          <t xml:space="preserve">Are you serious? Gosh, you nailed us. It has nothing to do with behavior or how they act towards us. It's not even at a genetic level. Or that we have thousands of years of culture and blood behind us. Or the fact that the flood of immigration is leading to a systematic extinction of whites. They just "look different" and that scares me. Get real.
 </t>
         </is>
       </c>
@@ -1213,7 +1213,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1225,7 +1225,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thanks HLM. I'll consider all the facts, after I've had a chance to get both sides of the story, both JS's and WFB's. Anyone who gets fired is bound to have some sour grapes to spew. I think that's something that has to be considered. Those here who hate Buckely are only interested in one side of that story, because it supports their case against him. I also don't know what Sobran was writing about Muslims that so turned off Buckely. Do you? I only know neither of us would want to live under Sharia law. lol I really don't consider myself to be a reactionary. I'm a White preservationist, to be more to the point. I don't believe returning this country to the old days of Jim Crow Segregation is possible or something we should really desire. White nationalists aren't exactly clear on how we get to a White homogeneous nation-state. We've never really had one in America, so it would be totally revolutionary to construct one.
+          <t xml:space="preserve">It's bull****, trust me. The readings are inaccurate when it comes to new worlders. There has not been one American that I have seen who does not have at least 0.1% SOMETHING non-white on that BS ancestry composition, and I have seen hundreds. 23andme's original ancestry painting was accurate. And, if you REALLY want even MORE accurate information than 23andme can provide, give your results to Professor Mcdonald. It's funny, because while NO AMERICAN has 100% European on there, and always has 0.1% of some BS, EVERY person that is from Europe is ALWAYS 100% European, which is such a joke. For example, I have seen tons of SICILIANS and PORTUGUESE that have 100% European, when that's laughable because of the fact that these populations on average have at least 1% African, due to middle eastern admixing. Trust me, it's complete BS, and apart of the moron who they had create the 'ancestry composition's' pro multi-racial agenda.. Their sources/methods are beyond faulty. As I said, if you want REAL results, send your data to Professor Mcdonald or use the free utility that was created by Stanford, Interpretome.
 </t>
         </is>
       </c>
@@ -1233,7 +1233,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1245,7 +1245,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">I hear you brother., AND I SEE THE TRUTH but who is going to get heard? You or Mister / Missus Anti Who will get MAINSTREAM celebration Who will be painted as the "good" and "bad" guy Remember that they have been programmed to intentionally pretend not to hear the logic of our dissent
+          <t xml:space="preserve">When people talk about the Klan I always ask which one in which era? There Klan was never a uniform thing. This is an interesting historical article from a radical Leftist- Rank-and-File Radicalism within the Ku Klux Klan of the 1920s | The Anarchist Library The demonization of Klan as a whole goes hand in hand with the demonization of the white small farmers and workers of Dixie, for Southern Nationalists to do join the Yankee Imperialist on this is either stupidity or treason.
 </t>
         </is>
       </c>
@@ -1253,7 +1253,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1265,7 +1265,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm not suggesting ANZAC day should be disregarded...I certainly feel it is an important event, I'm not even sure how you got that impression from what I wrote. What I disagree with is your apparent love of civic nationalism, which just does a whole lot more damage in the long run. I certainty used to hold the veiw that to be a 'true Aussie', all you had to do was embrace the values of this country. Well I made a horrible mistake, the few non-whites which are held in regard by the common white as being just as worthy to be an Australian citizen are seriously outnumbered by the non-whites that refuse to assimilate, that are like the Muslims you saw rioting the other day. Now it's not my wish, but ANZAC day and Australia day are just going to loose significance due to the effects of civic nationalism and all that it encompasses.
+          <t xml:space="preserve">Pasco County officials have banned Christmas trees from public buildings after their county attorney decided they were religious symbols. Dozens of people have complained to the county north of Tampa, and a constitutional law group this week urged it to reverse its decision. "This whole thing is silly. It floors me," said Marijane Graham, 67, of Dade City. "I'm sure there are atheists celebrating Christmas somewhere just for the spirit of giving. I've never read about a Christmas tree in the Bible, or Santa for that matter." The last of the Christmas trees was removed Wednesday, said Dan Johnson, assistant county administrator for Public Services. Trees in "semiprivate" areas, such as personal offices, were allowed to remain. Previously, the county barred religious symbols from its buildings but allowed Christmas trees. The county attorney reconsidered that stance, and decided the trees also were religious symbols, after a man sought to display a menorah in a public building, Johnson said. "What you allow for one (religious symbol) you must provide for all," Johnson said. Source: http://seattlepi.nwsource.com/nation...s%20Tree%20Ban
 </t>
         </is>
       </c>
@@ -1273,7 +1273,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1285,7 +1285,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ONLY if I was raped by a nonwhite, and couldn't get the morning after drug. NOT regardless of the fathers race. So I voted ''If I became pregnant and the guy was not White'' since I'm not a race-traitor, the only way that would ever happen is if I was raped. If the rapist was a white person, I would have the baby and then consider whether or not if I wanted to keep it or give it to adoption. I believe abortion is murder for white people. I could not care less either way what nonwhite people choose to do.
+          <t xml:space="preserve">Here is a little idea: After the race war, Europe is called Germania... the entire continent is subjected to German rule. The capital of Germania is Berlin, naturally. Natural borders don't need to be put back. With Germans in control, Europe will fall in line. From there, expand, and eventually the world. The quest for lebensraum will not be over until every land speaks German, and everywhere you look a German greets your eyes! Fuer Deutschland! Heil Hitler! Sieg Heil!
 </t>
         </is>
       </c>
@@ -1293,7 +1293,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1305,7 +1305,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">My saying "Ireland" was mainly because American Western culture reminds me so much of Ireland ( drinking Whiskey , playing benjo ) and because the English spoken in America has an Irish pronounciation : Yosemite Sam , a fictional American West gunman , he would not look out of place in Ireland .... [ame="https://www.youtube.com/watch?v=h1PfrmCGFnk"]The Good, the Bad and the Ugly Theme â€¢ Ennio Morricone - YouTube[/ame] Like I said , traitional American country and Irish Folk sound very much alike .. [ame="https://www.youtube.com/watch?v=_YuJZzuHDf8"]Rednex - Old Pop In An Oak (Official Music Video) [HD] - RednexMusic com - YouTube[/ame] ( please ignore that it's an overhyped techno-version .. ) [ame="https://www.youtube.com/watch?v=671G9ZD7R30"]I'll tell me ma lyrics - YouTube[/ame]
+          <t xml:space="preserve">hello dear, when I was your age, I, too, knew that I wanted to have a family. But somewhere along the line, I changed. It was rather strange and can say that I personally appeared to be selfish. I don't want to call these young ladies selfish, because like myself, they can change. I by no means was a race traitor, but I didn't realize the need to protect our white, and in my case Southern, heritage. I love having children. I would have more of hubby would allow, and I would adopt white children if there were not so many restrictions on what race you can adopt...anyway, I think you should stick with your heart and be a good example to your white friends.. Good luck! BB
 </t>
         </is>
       </c>
@@ -1313,7 +1313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1325,7 +1325,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Over the weekend some stuff went down in Gothenborg (sp?) Sweden, between Antifa and residents of the town. I noticed that there were an awful lot of swarthy individuals in AntiFa's ranks shouting "Alla akbar". So this would not be the first time they've joined up. And, to be honest, AntiFa would be stupid not to use their help, what with all the raghead-love being espoused by the Left for so many years - some people still think they're innocent little lambs.
+          <t xml:space="preserve">For the new Administration: the task ahead. Some pessimistic assessments of the future of the West~HLM: This an older article from Matt Parrott (2012): With a Whimper With a Whimper | The Occidental Observer - White Identity, Interests, and Culture America In Decline: A Society In Denial Mark Weber From a talk delivered in San Diego on November 13, 2010. America In Decline: A Society In Denial From Waaay Out West, ~HLM
 </t>
         </is>
       </c>
@@ -1333,7 +1333,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1345,7 +1345,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revolutions and new orders are always founded by a tiny minority of a given population. Joe Six-pack and his kind never engage in this kind of activity. To talk about your average, ordinary people is to talk about people who don't make a difference. This is your point, right soap? Now then, did you want to develop a thread on what to do with this information or what....?
+          <t xml:space="preserve">We aren't trying to debate the zealous antis. Most of them are lost causes, some are not. However the real target audience here are the unregistered readers. We get all types browsing through SF, not just WNs and antis. So when we reply thoughtfully and politely to the drivel put up by our anti friends, it is not to try and convince them, rather to show our lurkers that the reality of WN is far different from the media made myth. It works and we attract numerous folks with open minds willing to hear our side of the story. Also remember, an ad hominem is an admission of intellectual defeat.
 </t>
         </is>
       </c>
@@ -1353,7 +1353,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1365,7 +1365,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">PROUDLY paternalistic, Tony Abbott went into the desert yesterday defending his contentious views on dealing with Aborigines and promising a ban on all sniffable petrol in central Australia. Opal petrol, the fumeless fuel used in many Aboriginal settlements, will soon be mandatory in Alice Springs, Uluru and all roadhouses leading to the two centres. "What we've been looking at is a roll-out of unsniffable Opal petrol everywhere in central Australia, including Alice Springs," the Health Minister said yesterday. http://www.theaustralian.news.com.au...8-2702,00.html
+          <t xml:space="preserve">EXACTLY AS ENOCH PREDICTED "civil war is unavoidable, it is unlikely to take the form of conventional warfare. Mr Engels said the civil war will instead manifest itself in ways such at the 50 no-go areas in Sweden formed as a result of violent crime, or in Brussels where suburbs such as Molenbeek were able to hide Paris terrorist Salah Abdeslam from police for months." EU: Europe to face civil war within 30 years, Belgian historian David Engels claims | World | News | Express.co.uk
 </t>
         </is>
       </c>
@@ -1373,7 +1373,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1385,7 +1385,7 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">U.S., Europe caught in ‘death spiral’ of declining birth rates "Corcoran said. “It has been drummed into the heads of American college girls since the early 1970s that we should only have two children because of the growing world population. But who never listened to this propaganda? Pretty much all of the Third World and the Islamic world.” Rep. Steve King, R-Iowa: "Wilders understands that culture and demographics are our destiny. We can't restore our civilization with somebody else's babies." Globalists can’t have it both ways: Encouraging family planning, more women climbing the career ladder and having fewer children, then complaining about the aging population and smearing the reputations of everyone who balks at the idea of seeing their city, their state, their nation transformed into an Islamic enclave." .
+          <t xml:space="preserve">What has bodybuilding got to do with fighting? Fair enough it can might improve your physical attributes like running and stretching can but a martial art? Many martial artists reports that weights do little for their functional strength anyway. I have seen a Olympic Weightlifter with a few months of BJJ training tapped out about 20 times in a few minutes by a 126lb BJJ purple belt. Regardless of how much you can bench press are you aware how hard a slim youth with real boxing training can actually hit. Years ago we comparitively measured huge bodybuilders and other gym members hitting an electronic impact pad and then two skinny boxers showed how its really done. These geeky looking guys didn't particularly look like they were punching impressively yet almost effortlessly every casual jab, hook, cross they threw in quick succession were registering nearly off the scale. 2508
 </t>
         </is>
       </c>
@@ -1393,7 +1393,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1405,7 +1405,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No, Dr. Duke telling the world that prisoners of conscience languishing in Euro-Gulags should not be punished for merely questioning aspects of WWII is certainly NOT a waste of time. Anyone who gets a platform that has the attention of the world and defends the rights of white men who have been jailed for nothing more than politically incorrect speech is performing a worthwhile act. The fact that the media has resorted to outright lies and misrepresentations in response to Dr. Duke's impassioned plea for free speech and free expression for peaceful historical revisionists speaks volumes about how worthwhile his speech was and how much fear it evoked from his enemies.
+          <t xml:space="preserve">It isn't your COLOR. The notion that the differences we are talking about here exist only in melanin content is truly "silly." There are real, tangible differences between the different races of man aside from mere color that LIBERALS seem to tout all the time. These differences have been catalogued various times throughout this thread alone, let alone the many threads all over this site. We are DIFFERENT. We wouldn't be deporting you because of something as arbitrary as "the color of your skin," but rather because of clearly discernible differences in RACE. I hate how liberals trivialize those differences and then try to paint us out as ridiculous by claiming that these differences are only skin deep
 </t>
         </is>
       </c>
@@ -1413,7 +1413,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1425,7 +1425,7 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">The case exposed ethnic tensions in Shenandoah, a blue-collar town of 5,000 that has lured Hispanic residents drawn by cheap housing and jobs in nearby factories and farm fields. Ramirez moved to the town about seven years ago from Iramuco, Mexico, working in a factory and picking strawberries and cherries. The 2000 U.S. Census showed that Schuylkill County's population was 96.6 percent white, with 1.1 percent of the county listed as Hispanic or Latino. I really want you to read the above quote from that article I provided you with. They should not have been in their own neighborhoods? When illegals move in and take over my town I should leave? If we continue to turn our backs and run from the problems, there will be nowhere to run to.
+          <t xml:space="preserve">Order of events: 1) Israel kills a bunch of civilians. 2) People criticise them for it. 3) Israel calls the critics anti-Semites. 4) Israel kills more civilians. 5) People criticise them for it. 6) Israel calls the critics anti-Semites, and wonders why the world (in their insane persepective) is picking on them. Maybe it's all that inbreeding over so many years. Turned them into complete idiots who are incapable of a realistic perspective.
 </t>
         </is>
       </c>
@@ -1433,7 +1433,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1445,7 +1445,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, those are good points. We have to find a way to make all the White gal contestants feel positive about themselves even though there will be only one winner. Let's think of some runner up prizes. We can fix it so all of the non-winners think that they were the first or second runners up. We are not going to lie. All of our racially conscious White women are beautiful. 14 Words
+          <t xml:space="preserve">Kindred, I remember that quite well particularly near Scarborough Beach, fairly large boat shooting (Iam sure they had one of those automatic tennis ball machines) out orange coloured tennis balls. From memory, you had to swim a decent distance out at times, having a boogie board and flippers helped. I do not quite remember the Baywatch people though, that said I certainly remember the show in the early 90s on TV. Perth beaches are some of the cleanest in the country and parking is free along most lengths of it's coastline. Manly Beach in Sydney through Curl Curl and up to up to Narrabeen along the northern suburbs are nice as well but very crowded and expensive to park closer to Sydney.
 </t>
         </is>
       </c>
@@ -1453,7 +1453,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1465,7 +1465,7 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">don'feel helpless. I am in same boat- 42- went from one extreme to the other, and finding someone that is right for you , is difficult- NEVER COMPROMISE&lt; never feel like you are doing him a favor or feel inferior. Don't give them the satisfaction. It's better to have a support group and talk to people. I tend to obsess over things and that makes it worse. The past is gone, work on future, make a list of things you are looking for and work with it,,, it sounds odd but works scracth off AS SOON AS YOU SEE HE DOESN'T POSSESS THOSE QUALITIES
+          <t xml:space="preserve">You use this argument often. But you support a non-white country and a name that isn't even near anything white you can argue it all day long but at the end of the day that Toyota or Honda of yours is not considered a "white" product. At least most of fords money stays in the USA , same goes for GM and Mopar. They have also supplied jobs and the economy for over 100 years. Asians haven't done anything besides bomb pearl harbor. But sadly your dream of any of these auto companies going under will never happen
 </t>
         </is>
       </c>
@@ -1473,7 +1473,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1485,7 +1485,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Every beach in the world should have no plastic signs everywhere, and fines for anyone who brings plastic to the beach. It should be illegal. Also bins, anywhere near the beach should be closed, especially so birds can't get to them. Plastic bags should only be sold inland and illegal in any supermarket or vendor 15km near any beach. Kids in every school should learn about this, and it should be on the news or even on TV as advertisement by the government of that country. Plastic pollution is a really big and dangerous thing. Especially when we can make clean, biodegradable plastics from corn now.
+          <t xml:space="preserve">I have never known any farmers from the woodstock generation, just a bunch of self important negro lovers. True, I was just listening to Quicksilver Messenger Service. But bands like Janis Joplin were against "racism" in the south and we had garbage like Jimi Hendrix coming out in the 60's and idiots look up to that negro. I look to ww2 as the cause of Americas downfall and fall into stupidity and mongralization.
 </t>
         </is>
       </c>
@@ -1493,7 +1493,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1505,7 +1505,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">The mainstream dental industry will ber against any new development that threatens their business. Some years ago a vaccine was developed to innoculate children against caries. The dental industry perceivbed it as a threat to their multi million $$$ business and the anti-caries vaccine is 'on the shelf', unused as a result.
+          <t xml:space="preserve">Here's the answer: They are: English and Irish on mom's side (dad was Irish came to England after WWII) they are German, Swedish, Norwegian rapped up into Minnesota American on their father's side. They are great. Mom is very beautiful and very strong, but just a bit too "Irish" - has a volcano temper and likes to fight a bit too much. Doesn't seem to be a problem with the children. The Celtic and Nordic combination works out great! Nordics can be kinda of boring and lack passion, they need a spark of something else.
 </t>
         </is>
       </c>
@@ -1513,7 +1513,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1525,7 +1525,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dr. Kevin MacDonald Tuesday night, 8/25/09, at 9 PM Eastern US time, Tom Sunic interviews editor of The Occidental Observer, Dr. Kevin MacDonald. They will cover topics: • Funding of outlets such as The Occidental Observer and other activist organizations • Pay vs. gratis activism • History, purpose, and goals of TOO • Submission of articles to TOO: rules and tone • Organ harvesting after autopsies of Palestinians and the organ harvesting business • Political direction of Whites in America and the West: problems &amp; opportunities, possible balkanization in future, Republicans as a barometer of White political sentiment • Possibility of an independent cultural/political conference in America • How to answer hostile views in mainstream media To listen in, go to reasonradionetwork.com at the day and time mentioned above. For those who cannot listen to the show as it airs Tuesday night, I will, as always, post the mp3 archive link in this thread when it becomes available.
+          <t xml:space="preserve">I like my Colt Officers ACP 45 for general carry. Had a reliability/trigger job done when I got it. Installed a full lenght guide rod and spring setup. Replaced mags with Chip McCormick mags, and put Pachmyr signature wraparound grips on it. Shoots very well and is extremely reliable. Had it for many years. The only other pistol I like about as much is my S&amp;W 357 magnum with a 6 inch barrel. Put rubber grips on it and it shoots just fine. Accurate as all getout. Likes the Remington 110 grain hollow points for accuracy.
 </t>
         </is>
       </c>
